--- a/Saved_file/Thu/2026_01/work_logs_Thu_2026_01.xlsx
+++ b/Saved_file/Thu/2026_01/work_logs_Thu_2026_01.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Fraud_Events" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Mouse_Details" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Browser_Sessions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +472,706 @@
       <c r="J1" t="inlineStr">
         <is>
           <t>Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-26 12:06:20</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BROWSER_OPEN</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Browser suspicious activity detected</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SESS_20260126_000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>12:06:20</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-02 10:20:52</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.744</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SESS_20260102_001</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10:20:52</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-15 20:53:46</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RAPID_PAUSE_DETECTED</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.926</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SESS_20260115_002</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20:53:46</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-18 16:57:02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ANOMALY_DETECTED</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.827</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SESS_20260118_003</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-01-18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16:57:02</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-06 12:24:51</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LIVENESS_CHECK</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.329</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SESS_20260106_004</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>12:24:51</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-16 19:25:30</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INACTIVITY_ALERT</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Browser suspicious activity detected</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SESS_20260116_005</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>19:25:30</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-13 10:55:34</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BEHAVIOR_ANOMALY</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.810</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SESS_20260113_006</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10:55:34</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-10 18:04:19</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FACE_VERIFICATION</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.365</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SESS_20260110_007</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>18:04:19</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-13 13:58:29</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ANOMALY_DETECTED</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.791</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>SESS_20260113_008</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>13:58:29</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-27 17:52:02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ANOMALY_DETECTED</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.777</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SESS_20260127_009</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>17:52:02</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-28 08:39:54</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TAB_SWITCH</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Browser suspicious activity detected</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SESS_20260128_010</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>08:39:54</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-28 10:27:33</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FACE_VERIFICATION</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Face verification failed - Similarity: 0.228</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>SESS_20260128_011</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10:27:33</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Face</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-28 14:41:49</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BROWSER_OPEN</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Browser suspicious activity detected</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>SESS_20260128_012</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>WARNING</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>14:41:49</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Browser</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-14 14:29:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RAPID_PAUSE_DETECTED</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mouse anomaly detected - Score: 0.722</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>SESS_20260114_013</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>14:29:00</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Mouse</t>
         </is>
       </c>
     </row>
@@ -485,7 +1186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +1326,6399 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-01 10:25:27</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.259</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MOUSE_20260101_000</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>10:25:27</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>26509</v>
+      </c>
+      <c r="L2" t="n">
+        <v>26509</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31951.29</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19170.77</v>
+      </c>
+      <c r="O2" t="n">
+        <v>12780.52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>28</v>
+      </c>
+      <c r="R2" t="n">
+        <v>141.86</v>
+      </c>
+      <c r="S2" t="n">
+        <v>225.23</v>
+      </c>
+      <c r="T2" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>135.14</v>
+      </c>
+      <c r="V2" t="n">
+        <v>90.09</v>
+      </c>
+      <c r="W2" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="X2" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>141.86</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-01 11:27:24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.401</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MOUSE_20260101_001</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>11:27:24</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>7732</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7732</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12978.53</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7787.12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5191.41</v>
+      </c>
+      <c r="P3" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>9</v>
+      </c>
+      <c r="R3" t="n">
+        <v>95.06999999999999</v>
+      </c>
+      <c r="S3" t="n">
+        <v>136.52</v>
+      </c>
+      <c r="T3" t="n">
+        <v>35.36</v>
+      </c>
+      <c r="U3" t="n">
+        <v>81.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="W3" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="X3" t="n">
+        <v>23.81</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>95.06999999999999</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.401</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-01 09:12:10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.397</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MOUSE_20260101_002</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>09:12:10</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>26074</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26074</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8577.68</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5146.61</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3431.07</v>
+      </c>
+      <c r="P4" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>21</v>
+      </c>
+      <c r="R4" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="S4" t="n">
+        <v>220.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>132.32</v>
+      </c>
+      <c r="V4" t="n">
+        <v>88.20999999999999</v>
+      </c>
+      <c r="W4" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-02 12:58:36</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.423</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MOUSE_20260102_000</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>12:58:36</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>25196</v>
+      </c>
+      <c r="L5" t="n">
+        <v>25196</v>
+      </c>
+      <c r="M5" t="n">
+        <v>35696.53</v>
+      </c>
+      <c r="N5" t="n">
+        <v>21417.92</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14278.61</v>
+      </c>
+      <c r="P5" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>30</v>
+      </c>
+      <c r="R5" t="n">
+        <v>105.48</v>
+      </c>
+      <c r="S5" t="n">
+        <v>338.42</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="U5" t="n">
+        <v>203.05</v>
+      </c>
+      <c r="V5" t="n">
+        <v>135.37</v>
+      </c>
+      <c r="W5" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="X5" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>105.48</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-02 13:52:50</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.282</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MOUSE_20260102_001</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>13:52:50</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>19221</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19221</v>
+      </c>
+      <c r="M6" t="n">
+        <v>31185.71</v>
+      </c>
+      <c r="N6" t="n">
+        <v>18711.42</v>
+      </c>
+      <c r="O6" t="n">
+        <v>12474.28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>27</v>
+      </c>
+      <c r="R6" t="n">
+        <v>118.66</v>
+      </c>
+      <c r="S6" t="n">
+        <v>262.81</v>
+      </c>
+      <c r="T6" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="U6" t="n">
+        <v>157.68</v>
+      </c>
+      <c r="V6" t="n">
+        <v>105.12</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>118.66</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-01-02 14:42:19</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.364</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MOUSE_20260102_002</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>14:42:19</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>29846</v>
+      </c>
+      <c r="L7" t="n">
+        <v>29846</v>
+      </c>
+      <c r="M7" t="n">
+        <v>24998.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14998.86</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9999.24</v>
+      </c>
+      <c r="P7" t="n">
+        <v>41</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>126.09</v>
+      </c>
+      <c r="S7" t="n">
+        <v>198.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="U7" t="n">
+        <v>118.95</v>
+      </c>
+      <c r="V7" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="W7" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="X7" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>126.09</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-01-03 12:27:22</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.277</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MOUSE_20260103_000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>12:27:22</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>9997</v>
+      </c>
+      <c r="L8" t="n">
+        <v>9997</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11361.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6816.62</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4544.41</v>
+      </c>
+      <c r="P8" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="S8" t="n">
+        <v>116.11</v>
+      </c>
+      <c r="T8" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="U8" t="n">
+        <v>69.67</v>
+      </c>
+      <c r="V8" t="n">
+        <v>46.45</v>
+      </c>
+      <c r="W8" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="X8" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>97.84</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.277</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-01-03 14:03:36</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.281</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MOUSE_20260103_001</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>14:03:36</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>21983</v>
+      </c>
+      <c r="L9" t="n">
+        <v>21983</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14174.12</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8504.469999999999</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5669.65</v>
+      </c>
+      <c r="P9" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>159.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="T9" t="n">
+        <v>35.59</v>
+      </c>
+      <c r="U9" t="n">
+        <v>53.25</v>
+      </c>
+      <c r="V9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>21.79</v>
+      </c>
+      <c r="X9" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>159.7</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.281</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-01-03 09:44:39</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.400</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MOUSE_20260103_002</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>09:44:39</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>9851</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9851</v>
+      </c>
+      <c r="M10" t="n">
+        <v>14165.93</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8499.559999999999</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5666.37</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>57.68</v>
+      </c>
+      <c r="S10" t="n">
+        <v>245.6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="U10" t="n">
+        <v>147.36</v>
+      </c>
+      <c r="V10" t="n">
+        <v>98.23999999999999</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>57.68</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-01-05 15:53:17</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.822</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MOUSE_20260105_000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>15:53:17</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>13322</v>
+      </c>
+      <c r="L11" t="n">
+        <v>13322</v>
+      </c>
+      <c r="M11" t="n">
+        <v>38214.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>22928.64</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15285.76</v>
+      </c>
+      <c r="P11" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>16</v>
+      </c>
+      <c r="R11" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>250.59</v>
+      </c>
+      <c r="T11" t="n">
+        <v>30.94</v>
+      </c>
+      <c r="U11" t="n">
+        <v>150.35</v>
+      </c>
+      <c r="V11" t="n">
+        <v>100.24</v>
+      </c>
+      <c r="W11" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="X11" t="n">
+        <v>29.24</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-05 14:38:32</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.366</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MOUSE_20260105_001</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>14:38:32</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>13755</v>
+      </c>
+      <c r="L12" t="n">
+        <v>13755</v>
+      </c>
+      <c r="M12" t="n">
+        <v>19886.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11931.63</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7954.42</v>
+      </c>
+      <c r="P12" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>162.52</v>
+      </c>
+      <c r="S12" t="n">
+        <v>122.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>19.51</v>
+      </c>
+      <c r="U12" t="n">
+        <v>73.42</v>
+      </c>
+      <c r="V12" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="X12" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>162.52</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.366</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-05 13:34:53</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.337</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>MOUSE_20260105_002</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>13:34:53</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>18470</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18470</v>
+      </c>
+      <c r="M13" t="n">
+        <v>15991.11</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9594.67</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6396.45</v>
+      </c>
+      <c r="P13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>14</v>
+      </c>
+      <c r="R13" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="S13" t="n">
+        <v>165.25</v>
+      </c>
+      <c r="T13" t="n">
+        <v>29.84</v>
+      </c>
+      <c r="U13" t="n">
+        <v>99.15000000000001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="W13" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="X13" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-01-06 13:19:05</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.259</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MOUSE_20260106_000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>13:19:05</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>16956</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16956</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8958.059999999999</v>
+      </c>
+      <c r="N14" t="n">
+        <v>5374.84</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3583.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>86.06999999999999</v>
+      </c>
+      <c r="S14" t="n">
+        <v>104.08</v>
+      </c>
+      <c r="T14" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="U14" t="n">
+        <v>62.45</v>
+      </c>
+      <c r="V14" t="n">
+        <v>41.63</v>
+      </c>
+      <c r="W14" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>86.06999999999999</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-01-06 15:30:58</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.362</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MOUSE_20260106_001</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>15:30:58</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>29350</v>
+      </c>
+      <c r="L15" t="n">
+        <v>29350</v>
+      </c>
+      <c r="M15" t="n">
+        <v>8315.879999999999</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4989.53</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3326.35</v>
+      </c>
+      <c r="P15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>29</v>
+      </c>
+      <c r="R15" t="n">
+        <v>178.22</v>
+      </c>
+      <c r="S15" t="n">
+        <v>46.66</v>
+      </c>
+      <c r="T15" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="U15" t="n">
+        <v>28</v>
+      </c>
+      <c r="V15" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="X15" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>178.22</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-01-06 09:25:21</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.809</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MOUSE_20260106_002</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>09:25:21</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>13440</v>
+      </c>
+      <c r="L16" t="n">
+        <v>13440</v>
+      </c>
+      <c r="M16" t="n">
+        <v>38447.2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>23068.32</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15378.88</v>
+      </c>
+      <c r="P16" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>25</v>
+      </c>
+      <c r="R16" t="n">
+        <v>151.11</v>
+      </c>
+      <c r="S16" t="n">
+        <v>254.43</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="U16" t="n">
+        <v>152.66</v>
+      </c>
+      <c r="V16" t="n">
+        <v>101.77</v>
+      </c>
+      <c r="W16" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>151.11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-01-07 16:20:01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.404</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MOUSE_20260107_000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>16:20:01</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>13618</v>
+      </c>
+      <c r="L17" t="n">
+        <v>13618</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6839.13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4103.48</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2735.65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>154.42</v>
+      </c>
+      <c r="S17" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="T17" t="n">
+        <v>33.86</v>
+      </c>
+      <c r="U17" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="V17" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>154.42</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-01-07 17:48:54</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.347</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MOUSE_20260107_001</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>17:48:54</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>20067</v>
+      </c>
+      <c r="L18" t="n">
+        <v>20067</v>
+      </c>
+      <c r="M18" t="n">
+        <v>21093.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12655.84</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8437.23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>15</v>
+      </c>
+      <c r="R18" t="n">
+        <v>116.81</v>
+      </c>
+      <c r="S18" t="n">
+        <v>180.57</v>
+      </c>
+      <c r="T18" t="n">
+        <v>48.13</v>
+      </c>
+      <c r="U18" t="n">
+        <v>108.34</v>
+      </c>
+      <c r="V18" t="n">
+        <v>72.23</v>
+      </c>
+      <c r="W18" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="X18" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>116.81</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.347</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-01-07 09:33:26</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.408</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>MOUSE_20260107_002</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>09:33:26</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>7830</v>
+      </c>
+      <c r="L19" t="n">
+        <v>7830</v>
+      </c>
+      <c r="M19" t="n">
+        <v>35699.27</v>
+      </c>
+      <c r="N19" t="n">
+        <v>21419.56</v>
+      </c>
+      <c r="O19" t="n">
+        <v>14279.71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>18</v>
+      </c>
+      <c r="R19" t="n">
+        <v>57.51</v>
+      </c>
+      <c r="S19" t="n">
+        <v>620.77</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="U19" t="n">
+        <v>372.46</v>
+      </c>
+      <c r="V19" t="n">
+        <v>248.31</v>
+      </c>
+      <c r="W19" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="X19" t="n">
+        <v>19.73</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>57.51</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.408</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-01-08 13:28:37</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.354</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MOUSE_20260108_000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>13:28:37</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>22570</v>
+      </c>
+      <c r="L20" t="n">
+        <v>22570</v>
+      </c>
+      <c r="M20" t="n">
+        <v>17750.6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10650.36</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7100.24</v>
+      </c>
+      <c r="P20" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>17</v>
+      </c>
+      <c r="R20" t="n">
+        <v>50.02</v>
+      </c>
+      <c r="S20" t="n">
+        <v>354.86</v>
+      </c>
+      <c r="T20" t="n">
+        <v>40.83</v>
+      </c>
+      <c r="U20" t="n">
+        <v>212.91</v>
+      </c>
+      <c r="V20" t="n">
+        <v>141.94</v>
+      </c>
+      <c r="W20" t="n">
+        <v>19.97</v>
+      </c>
+      <c r="X20" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>50.02</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-01-08 17:53:59</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.340</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MOUSE_20260108_001</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>17:53:59</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>8378</v>
+      </c>
+      <c r="L21" t="n">
+        <v>8378</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17783.53</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10670.12</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7113.41</v>
+      </c>
+      <c r="P21" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>78.41</v>
+      </c>
+      <c r="S21" t="n">
+        <v>226.81</v>
+      </c>
+      <c r="T21" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="U21" t="n">
+        <v>136.09</v>
+      </c>
+      <c r="V21" t="n">
+        <v>90.73</v>
+      </c>
+      <c r="W21" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="X21" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>78.41</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-01-08 14:27:32</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.396</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MOUSE_20260108_002</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>14:27:32</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>21014</v>
+      </c>
+      <c r="L22" t="n">
+        <v>21014</v>
+      </c>
+      <c r="M22" t="n">
+        <v>37627.62</v>
+      </c>
+      <c r="N22" t="n">
+        <v>22576.57</v>
+      </c>
+      <c r="O22" t="n">
+        <v>15051.05</v>
+      </c>
+      <c r="P22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>23</v>
+      </c>
+      <c r="R22" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1044.66</v>
+      </c>
+      <c r="T22" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="U22" t="n">
+        <v>626.79</v>
+      </c>
+      <c r="V22" t="n">
+        <v>417.86</v>
+      </c>
+      <c r="W22" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.396</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-01-09 10:25:12</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.359</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MOUSE_20260109_000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>10:25:12</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>25645</v>
+      </c>
+      <c r="L23" t="n">
+        <v>25645</v>
+      </c>
+      <c r="M23" t="n">
+        <v>36429.92</v>
+      </c>
+      <c r="N23" t="n">
+        <v>21857.95</v>
+      </c>
+      <c r="O23" t="n">
+        <v>14571.97</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" t="n">
+        <v>43.06</v>
+      </c>
+      <c r="S23" t="n">
+        <v>846.12</v>
+      </c>
+      <c r="T23" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="U23" t="n">
+        <v>507.67</v>
+      </c>
+      <c r="V23" t="n">
+        <v>338.45</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="X23" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>43.06</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.359</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-01-09 17:06:03</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.428</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MOUSE_20260109_001</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>17:06:03</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>17651</v>
+      </c>
+      <c r="L24" t="n">
+        <v>17651</v>
+      </c>
+      <c r="M24" t="n">
+        <v>18492.99</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11095.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>7397.2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>19</v>
+      </c>
+      <c r="R24" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>259.36</v>
+      </c>
+      <c r="T24" t="n">
+        <v>46.34</v>
+      </c>
+      <c r="U24" t="n">
+        <v>155.62</v>
+      </c>
+      <c r="V24" t="n">
+        <v>103.74</v>
+      </c>
+      <c r="W24" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="X24" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-01-09 12:19:29</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.298</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>MOUSE_20260109_002</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>12:19:29</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>17480</v>
+      </c>
+      <c r="L25" t="n">
+        <v>17480</v>
+      </c>
+      <c r="M25" t="n">
+        <v>11569.71</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6941.82</v>
+      </c>
+      <c r="O25" t="n">
+        <v>4627.88</v>
+      </c>
+      <c r="P25" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>23</v>
+      </c>
+      <c r="R25" t="n">
+        <v>178.51</v>
+      </c>
+      <c r="S25" t="n">
+        <v>64.81</v>
+      </c>
+      <c r="T25" t="n">
+        <v>48.27</v>
+      </c>
+      <c r="U25" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="V25" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="W25" t="n">
+        <v>27.69</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>178.51</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-01-11 15:19:57</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.318</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MOUSE_20260111_000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>15:19:57</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>20797</v>
+      </c>
+      <c r="L26" t="n">
+        <v>20797</v>
+      </c>
+      <c r="M26" t="n">
+        <v>21763.44</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13058.06</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8705.370000000001</v>
+      </c>
+      <c r="P26" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>17</v>
+      </c>
+      <c r="R26" t="n">
+        <v>117.55</v>
+      </c>
+      <c r="S26" t="n">
+        <v>185.14</v>
+      </c>
+      <c r="T26" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="U26" t="n">
+        <v>111.08</v>
+      </c>
+      <c r="V26" t="n">
+        <v>74.06</v>
+      </c>
+      <c r="W26" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="X26" t="n">
+        <v>15.71</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>117.55</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-01-11 13:30:36</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.898</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MOUSE_20260111_001</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>13:30:36</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>10065</v>
+      </c>
+      <c r="L27" t="n">
+        <v>10065</v>
+      </c>
+      <c r="M27" t="n">
+        <v>31330.14</v>
+      </c>
+      <c r="N27" t="n">
+        <v>18798.09</v>
+      </c>
+      <c r="O27" t="n">
+        <v>12532.06</v>
+      </c>
+      <c r="P27" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>13</v>
+      </c>
+      <c r="R27" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="S27" t="n">
+        <v>690.63</v>
+      </c>
+      <c r="T27" t="n">
+        <v>24.37</v>
+      </c>
+      <c r="U27" t="n">
+        <v>414.38</v>
+      </c>
+      <c r="V27" t="n">
+        <v>276.25</v>
+      </c>
+      <c r="W27" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="X27" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>45.36</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.898</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-01-11 15:43:42</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.424</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MOUSE_20260111_002</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2026-01-11</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>15:43:42</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>5096</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5096</v>
+      </c>
+      <c r="M28" t="n">
+        <v>27763.25</v>
+      </c>
+      <c r="N28" t="n">
+        <v>16657.95</v>
+      </c>
+      <c r="O28" t="n">
+        <v>11105.3</v>
+      </c>
+      <c r="P28" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>16</v>
+      </c>
+      <c r="R28" t="n">
+        <v>160.65</v>
+      </c>
+      <c r="S28" t="n">
+        <v>172.81</v>
+      </c>
+      <c r="T28" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="U28" t="n">
+        <v>103.69</v>
+      </c>
+      <c r="V28" t="n">
+        <v>69.13</v>
+      </c>
+      <c r="W28" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>160.65</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-01-12 17:34:11</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.337</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MOUSE_20260112_000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>17:34:11</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>19528</v>
+      </c>
+      <c r="L29" t="n">
+        <v>19528</v>
+      </c>
+      <c r="M29" t="n">
+        <v>33413.77</v>
+      </c>
+      <c r="N29" t="n">
+        <v>20048.26</v>
+      </c>
+      <c r="O29" t="n">
+        <v>13365.51</v>
+      </c>
+      <c r="P29" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>11</v>
+      </c>
+      <c r="R29" t="n">
+        <v>146.63</v>
+      </c>
+      <c r="S29" t="n">
+        <v>227.88</v>
+      </c>
+      <c r="T29" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="U29" t="n">
+        <v>136.73</v>
+      </c>
+      <c r="V29" t="n">
+        <v>91.15000000000001</v>
+      </c>
+      <c r="W29" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="X29" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>146.63</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.337</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-01-12 11:32:15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.379</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MOUSE_20260112_001</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>11:32:15</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>7140</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7140</v>
+      </c>
+      <c r="M30" t="n">
+        <v>30016.43</v>
+      </c>
+      <c r="N30" t="n">
+        <v>18009.86</v>
+      </c>
+      <c r="O30" t="n">
+        <v>12006.57</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" t="n">
+        <v>144.65</v>
+      </c>
+      <c r="S30" t="n">
+        <v>207.51</v>
+      </c>
+      <c r="T30" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="U30" t="n">
+        <v>124.51</v>
+      </c>
+      <c r="V30" t="n">
+        <v>83</v>
+      </c>
+      <c r="W30" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="X30" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>144.65</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-01-12 14:57:31</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.421</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>MOUSE_20260112_002</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>14:57:31</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>28533</v>
+      </c>
+      <c r="L31" t="n">
+        <v>28533</v>
+      </c>
+      <c r="M31" t="n">
+        <v>12940.31</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7764.19</v>
+      </c>
+      <c r="O31" t="n">
+        <v>5176.12</v>
+      </c>
+      <c r="P31" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>12</v>
+      </c>
+      <c r="R31" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="S31" t="n">
+        <v>177.61</v>
+      </c>
+      <c r="T31" t="n">
+        <v>25.92</v>
+      </c>
+      <c r="U31" t="n">
+        <v>106.57</v>
+      </c>
+      <c r="V31" t="n">
+        <v>71.04000000000001</v>
+      </c>
+      <c r="W31" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="X31" t="n">
+        <v>25.04</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>72.86</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-01-13 15:06:16</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.393</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MOUSE_20260113_000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>15:06:16</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>21577</v>
+      </c>
+      <c r="L32" t="n">
+        <v>21577</v>
+      </c>
+      <c r="M32" t="n">
+        <v>20102.27</v>
+      </c>
+      <c r="N32" t="n">
+        <v>12061.36</v>
+      </c>
+      <c r="O32" t="n">
+        <v>8040.91</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>25</v>
+      </c>
+      <c r="R32" t="n">
+        <v>68.87</v>
+      </c>
+      <c r="S32" t="n">
+        <v>291.9</v>
+      </c>
+      <c r="T32" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="U32" t="n">
+        <v>175.14</v>
+      </c>
+      <c r="V32" t="n">
+        <v>116.76</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>68.87</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.393</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-01-13 10:29:52</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.333</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MOUSE_20260113_001</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>10:29:52</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>25610</v>
+      </c>
+      <c r="L33" t="n">
+        <v>25610</v>
+      </c>
+      <c r="M33" t="n">
+        <v>12874.13</v>
+      </c>
+      <c r="N33" t="n">
+        <v>7724.48</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5149.65</v>
+      </c>
+      <c r="P33" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" t="n">
+        <v>99.16</v>
+      </c>
+      <c r="S33" t="n">
+        <v>129.83</v>
+      </c>
+      <c r="T33" t="n">
+        <v>48.85</v>
+      </c>
+      <c r="U33" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="V33" t="n">
+        <v>51.93</v>
+      </c>
+      <c r="W33" t="n">
+        <v>27.77</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>99.16</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-01-13 12:46:02</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.404</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MOUSE_20260113_002</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>12:46:02</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>18665</v>
+      </c>
+      <c r="L34" t="n">
+        <v>18665</v>
+      </c>
+      <c r="M34" t="n">
+        <v>27842.01</v>
+      </c>
+      <c r="N34" t="n">
+        <v>16705.21</v>
+      </c>
+      <c r="O34" t="n">
+        <v>11136.81</v>
+      </c>
+      <c r="P34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>22</v>
+      </c>
+      <c r="R34" t="n">
+        <v>162.59</v>
+      </c>
+      <c r="S34" t="n">
+        <v>171.24</v>
+      </c>
+      <c r="T34" t="n">
+        <v>33.73</v>
+      </c>
+      <c r="U34" t="n">
+        <v>102.74</v>
+      </c>
+      <c r="V34" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="X34" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>162.59</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-01-14 17:43:07</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.401</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MOUSE_20260114_000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>17:43:07</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>27738</v>
+      </c>
+      <c r="L35" t="n">
+        <v>27738</v>
+      </c>
+      <c r="M35" t="n">
+        <v>25035.22</v>
+      </c>
+      <c r="N35" t="n">
+        <v>15021.13</v>
+      </c>
+      <c r="O35" t="n">
+        <v>10014.09</v>
+      </c>
+      <c r="P35" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>17</v>
+      </c>
+      <c r="R35" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="S35" t="n">
+        <v>738.25</v>
+      </c>
+      <c r="T35" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="U35" t="n">
+        <v>442.95</v>
+      </c>
+      <c r="V35" t="n">
+        <v>295.3</v>
+      </c>
+      <c r="W35" t="n">
+        <v>11.36</v>
+      </c>
+      <c r="X35" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>33.91</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.401</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-01-14 14:19:05</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.298</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MOUSE_20260114_001</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>14:19:05</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>6332</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6332</v>
+      </c>
+      <c r="M36" t="n">
+        <v>33169.02</v>
+      </c>
+      <c r="N36" t="n">
+        <v>19901.41</v>
+      </c>
+      <c r="O36" t="n">
+        <v>13267.61</v>
+      </c>
+      <c r="P36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>14</v>
+      </c>
+      <c r="R36" t="n">
+        <v>163.38</v>
+      </c>
+      <c r="S36" t="n">
+        <v>203.02</v>
+      </c>
+      <c r="T36" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="U36" t="n">
+        <v>121.81</v>
+      </c>
+      <c r="V36" t="n">
+        <v>81.20999999999999</v>
+      </c>
+      <c r="W36" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="X36" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>163.38</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2026-01-14 09:22:35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.262</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MOUSE_20260114_002</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>09:22:35</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>11030</v>
+      </c>
+      <c r="L37" t="n">
+        <v>11030</v>
+      </c>
+      <c r="M37" t="n">
+        <v>33019.19</v>
+      </c>
+      <c r="N37" t="n">
+        <v>19811.51</v>
+      </c>
+      <c r="O37" t="n">
+        <v>13207.67</v>
+      </c>
+      <c r="P37" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>120.21</v>
+      </c>
+      <c r="S37" t="n">
+        <v>274.69</v>
+      </c>
+      <c r="T37" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="U37" t="n">
+        <v>164.81</v>
+      </c>
+      <c r="V37" t="n">
+        <v>109.87</v>
+      </c>
+      <c r="W37" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="X37" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>120.21</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2026-01-15 11:01:48</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.305</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MOUSE_20260115_000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>11:01:48</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>21107</v>
+      </c>
+      <c r="L38" t="n">
+        <v>21107</v>
+      </c>
+      <c r="M38" t="n">
+        <v>38200.98</v>
+      </c>
+      <c r="N38" t="n">
+        <v>22920.59</v>
+      </c>
+      <c r="O38" t="n">
+        <v>15280.39</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>8</v>
+      </c>
+      <c r="R38" t="n">
+        <v>172.03</v>
+      </c>
+      <c r="S38" t="n">
+        <v>222.06</v>
+      </c>
+      <c r="T38" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="U38" t="n">
+        <v>133.24</v>
+      </c>
+      <c r="V38" t="n">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="W38" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="X38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>172.03</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2026-01-15 09:44:35</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.436</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MOUSE_20260115_001</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>09:44:35</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>14663</v>
+      </c>
+      <c r="L39" t="n">
+        <v>14663</v>
+      </c>
+      <c r="M39" t="n">
+        <v>11010.59</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6606.36</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4404.24</v>
+      </c>
+      <c r="P39" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>13</v>
+      </c>
+      <c r="R39" t="n">
+        <v>92.73999999999999</v>
+      </c>
+      <c r="S39" t="n">
+        <v>118.73</v>
+      </c>
+      <c r="T39" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="U39" t="n">
+        <v>71.23999999999999</v>
+      </c>
+      <c r="V39" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="W39" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="X39" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>92.73999999999999</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-01-15 09:39:49</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.921</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>MOUSE_20260115_002</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>09:39:49</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>18236</v>
+      </c>
+      <c r="L40" t="n">
+        <v>18236</v>
+      </c>
+      <c r="M40" t="n">
+        <v>28745.43</v>
+      </c>
+      <c r="N40" t="n">
+        <v>17247.26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>11498.17</v>
+      </c>
+      <c r="P40" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>30</v>
+      </c>
+      <c r="R40" t="n">
+        <v>174.68</v>
+      </c>
+      <c r="S40" t="n">
+        <v>164.56</v>
+      </c>
+      <c r="T40" t="n">
+        <v>49.32</v>
+      </c>
+      <c r="U40" t="n">
+        <v>98.73</v>
+      </c>
+      <c r="V40" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="W40" t="n">
+        <v>30</v>
+      </c>
+      <c r="X40" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>174.68</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-01-16 16:45:39</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.385</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MOUSE_20260116_000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>16:45:39</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>19495</v>
+      </c>
+      <c r="L41" t="n">
+        <v>19495</v>
+      </c>
+      <c r="M41" t="n">
+        <v>20164.12</v>
+      </c>
+      <c r="N41" t="n">
+        <v>12098.47</v>
+      </c>
+      <c r="O41" t="n">
+        <v>8065.65</v>
+      </c>
+      <c r="P41" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>26</v>
+      </c>
+      <c r="R41" t="n">
+        <v>94.47</v>
+      </c>
+      <c r="S41" t="n">
+        <v>213.44</v>
+      </c>
+      <c r="T41" t="n">
+        <v>48</v>
+      </c>
+      <c r="U41" t="n">
+        <v>128.06</v>
+      </c>
+      <c r="V41" t="n">
+        <v>85.38</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="X41" t="n">
+        <v>20.51</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>94.47</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.385</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-01-16 15:14:27</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.383</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MOUSE_20260116_001</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>15:14:27</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>23683</v>
+      </c>
+      <c r="L42" t="n">
+        <v>23683</v>
+      </c>
+      <c r="M42" t="n">
+        <v>12663.07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7597.84</v>
+      </c>
+      <c r="O42" t="n">
+        <v>5065.23</v>
+      </c>
+      <c r="P42" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>24</v>
+      </c>
+      <c r="R42" t="n">
+        <v>78.06999999999999</v>
+      </c>
+      <c r="S42" t="n">
+        <v>162.2</v>
+      </c>
+      <c r="T42" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="U42" t="n">
+        <v>97.31999999999999</v>
+      </c>
+      <c r="V42" t="n">
+        <v>64.88</v>
+      </c>
+      <c r="W42" t="n">
+        <v>29.65</v>
+      </c>
+      <c r="X42" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>78.06999999999999</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-01-16 10:25:47</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.406</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MOUSE_20260116_002</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>10:25:47</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>28872</v>
+      </c>
+      <c r="L43" t="n">
+        <v>28872</v>
+      </c>
+      <c r="M43" t="n">
+        <v>14456.46</v>
+      </c>
+      <c r="N43" t="n">
+        <v>8673.879999999999</v>
+      </c>
+      <c r="O43" t="n">
+        <v>5782.58</v>
+      </c>
+      <c r="P43" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>17</v>
+      </c>
+      <c r="R43" t="n">
+        <v>62.22</v>
+      </c>
+      <c r="S43" t="n">
+        <v>232.35</v>
+      </c>
+      <c r="T43" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="U43" t="n">
+        <v>139.41</v>
+      </c>
+      <c r="V43" t="n">
+        <v>92.94</v>
+      </c>
+      <c r="W43" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="X43" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>62.22</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.406</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-01-19 15:32:10</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.256</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MOUSE_20260119_000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>15:32:10</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>24688</v>
+      </c>
+      <c r="L44" t="n">
+        <v>24688</v>
+      </c>
+      <c r="M44" t="n">
+        <v>37751.57</v>
+      </c>
+      <c r="N44" t="n">
+        <v>22650.94</v>
+      </c>
+      <c r="O44" t="n">
+        <v>15100.63</v>
+      </c>
+      <c r="P44" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>369.02</v>
+      </c>
+      <c r="T44" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="U44" t="n">
+        <v>221.41</v>
+      </c>
+      <c r="V44" t="n">
+        <v>147.61</v>
+      </c>
+      <c r="W44" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="X44" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.256</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-01-19 12:35:59</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.821</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MOUSE_20260119_001</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>12:35:59</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>29903</v>
+      </c>
+      <c r="L45" t="n">
+        <v>29903</v>
+      </c>
+      <c r="M45" t="n">
+        <v>28673.32</v>
+      </c>
+      <c r="N45" t="n">
+        <v>17203.99</v>
+      </c>
+      <c r="O45" t="n">
+        <v>11469.33</v>
+      </c>
+      <c r="P45" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>21</v>
+      </c>
+      <c r="R45" t="n">
+        <v>157.69</v>
+      </c>
+      <c r="S45" t="n">
+        <v>181.83</v>
+      </c>
+      <c r="T45" t="n">
+        <v>23.67</v>
+      </c>
+      <c r="U45" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>72.73</v>
+      </c>
+      <c r="W45" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="X45" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>157.69</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.821</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-01-19 16:44:20</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.375</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>MOUSE_20260119_002</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>16:44:20</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>29092</v>
+      </c>
+      <c r="L46" t="n">
+        <v>29092</v>
+      </c>
+      <c r="M46" t="n">
+        <v>24112.7</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14467.62</v>
+      </c>
+      <c r="O46" t="n">
+        <v>9645.08</v>
+      </c>
+      <c r="P46" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>23</v>
+      </c>
+      <c r="R46" t="n">
+        <v>167.17</v>
+      </c>
+      <c r="S46" t="n">
+        <v>144.24</v>
+      </c>
+      <c r="T46" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="U46" t="n">
+        <v>86.54000000000001</v>
+      </c>
+      <c r="V46" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="W46" t="n">
+        <v>26.72</v>
+      </c>
+      <c r="X46" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>167.17</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-01-20 15:30:10</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.282</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MOUSE_20260120_000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>15:30:10</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>28518</v>
+      </c>
+      <c r="L47" t="n">
+        <v>28518</v>
+      </c>
+      <c r="M47" t="n">
+        <v>6274.8</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3764.88</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2509.92</v>
+      </c>
+      <c r="P47" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>25</v>
+      </c>
+      <c r="R47" t="n">
+        <v>149.89</v>
+      </c>
+      <c r="S47" t="n">
+        <v>41.86</v>
+      </c>
+      <c r="T47" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="U47" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="V47" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="W47" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="X47" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>149.89</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-01-20 16:32:20</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.445</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MOUSE_20260120_001</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>16:32:20</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>16684</v>
+      </c>
+      <c r="L48" t="n">
+        <v>16684</v>
+      </c>
+      <c r="M48" t="n">
+        <v>26610.75</v>
+      </c>
+      <c r="N48" t="n">
+        <v>15966.45</v>
+      </c>
+      <c r="O48" t="n">
+        <v>10644.3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>9</v>
+      </c>
+      <c r="R48" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="S48" t="n">
+        <v>170.31</v>
+      </c>
+      <c r="T48" t="n">
+        <v>22.37</v>
+      </c>
+      <c r="U48" t="n">
+        <v>102.18</v>
+      </c>
+      <c r="V48" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="W48" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="X48" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>156.25</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-01-20 11:55:57</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.450</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>MOUSE_20260120_002</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>11:55:57</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>11771</v>
+      </c>
+      <c r="L49" t="n">
+        <v>11771</v>
+      </c>
+      <c r="M49" t="n">
+        <v>35494.16</v>
+      </c>
+      <c r="N49" t="n">
+        <v>21296.5</v>
+      </c>
+      <c r="O49" t="n">
+        <v>14197.67</v>
+      </c>
+      <c r="P49" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>20</v>
+      </c>
+      <c r="R49" t="n">
+        <v>177.43</v>
+      </c>
+      <c r="S49" t="n">
+        <v>200.05</v>
+      </c>
+      <c r="T49" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="U49" t="n">
+        <v>120.03</v>
+      </c>
+      <c r="V49" t="n">
+        <v>80.02</v>
+      </c>
+      <c r="W49" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="X49" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>177.43</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-01-21 15:13:19</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.253</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MOUSE_20260121_000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>15:13:19</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>23222</v>
+      </c>
+      <c r="L50" t="n">
+        <v>23222</v>
+      </c>
+      <c r="M50" t="n">
+        <v>22143.27</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13285.96</v>
+      </c>
+      <c r="O50" t="n">
+        <v>8857.309999999999</v>
+      </c>
+      <c r="P50" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>38.17</v>
+      </c>
+      <c r="S50" t="n">
+        <v>580.11</v>
+      </c>
+      <c r="T50" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="U50" t="n">
+        <v>348.07</v>
+      </c>
+      <c r="V50" t="n">
+        <v>232.05</v>
+      </c>
+      <c r="W50" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="X50" t="n">
+        <v>18.39</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>38.17</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-01-21 12:36:12</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.407</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MOUSE_20260121_001</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>12:36:12</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>24791</v>
+      </c>
+      <c r="L51" t="n">
+        <v>24791</v>
+      </c>
+      <c r="M51" t="n">
+        <v>29764.02</v>
+      </c>
+      <c r="N51" t="n">
+        <v>17858.41</v>
+      </c>
+      <c r="O51" t="n">
+        <v>11905.61</v>
+      </c>
+      <c r="P51" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>11</v>
+      </c>
+      <c r="R51" t="n">
+        <v>93.48</v>
+      </c>
+      <c r="S51" t="n">
+        <v>318.39</v>
+      </c>
+      <c r="T51" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="U51" t="n">
+        <v>191.04</v>
+      </c>
+      <c r="V51" t="n">
+        <v>127.36</v>
+      </c>
+      <c r="W51" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="X51" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>93.48</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-01-21 14:13:31</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.264</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>MOUSE_20260121_002</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>14:13:31</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>20600</v>
+      </c>
+      <c r="L52" t="n">
+        <v>20600</v>
+      </c>
+      <c r="M52" t="n">
+        <v>6054.97</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3632.98</v>
+      </c>
+      <c r="O52" t="n">
+        <v>2421.99</v>
+      </c>
+      <c r="P52" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>8</v>
+      </c>
+      <c r="R52" t="n">
+        <v>131.97</v>
+      </c>
+      <c r="S52" t="n">
+        <v>45.88</v>
+      </c>
+      <c r="T52" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="U52" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="V52" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="W52" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="X52" t="n">
+        <v>26.05</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>131.97</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-01-22 15:52:20</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.369</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MOUSE_20260122_000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>15:52:20</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>20447</v>
+      </c>
+      <c r="L53" t="n">
+        <v>20447</v>
+      </c>
+      <c r="M53" t="n">
+        <v>18965.99</v>
+      </c>
+      <c r="N53" t="n">
+        <v>11379.59</v>
+      </c>
+      <c r="O53" t="n">
+        <v>7586.4</v>
+      </c>
+      <c r="P53" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>29</v>
+      </c>
+      <c r="R53" t="n">
+        <v>141.33</v>
+      </c>
+      <c r="S53" t="n">
+        <v>134.2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="U53" t="n">
+        <v>80.52</v>
+      </c>
+      <c r="V53" t="n">
+        <v>53.68</v>
+      </c>
+      <c r="W53" t="n">
+        <v>23.04</v>
+      </c>
+      <c r="X53" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>141.33</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-01-22 13:02:16</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.348</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>MOUSE_20260122_001</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>13:02:16</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>17360</v>
+      </c>
+      <c r="L54" t="n">
+        <v>17360</v>
+      </c>
+      <c r="M54" t="n">
+        <v>11129.72</v>
+      </c>
+      <c r="N54" t="n">
+        <v>6677.83</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4451.89</v>
+      </c>
+      <c r="P54" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>7</v>
+      </c>
+      <c r="R54" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>102.58</v>
+      </c>
+      <c r="T54" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="U54" t="n">
+        <v>61.55</v>
+      </c>
+      <c r="V54" t="n">
+        <v>41.03</v>
+      </c>
+      <c r="W54" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="X54" t="n">
+        <v>15.72</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.348</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-01-22 09:30:15</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MOUSE_SESSION</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Mouse session - Score: 0.256</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>MOUSE_20260122_002</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>INFO</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>09:30:15</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Mouse</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>15275</v>
+      </c>
+      <c r="L55" t="n">
+        <v>15275</v>
+      </c>
+      <c r="M55" t="n">
+        <v>20144.11</v>
+      </c>
+      <c r="N55" t="n">
+        <v>12086.46</v>
+      </c>
+      <c r="O55" t="n">
+        <v>8057.64</v>
+      </c>
+      <c r="P55" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>26</v>
+      </c>
+      <c r="R55" t="n">
+        <v>177.44</v>
+      </c>
+      <c r="S55" t="n">
+        <v>113.53</v>
+      </c>
+      <c r="T55" t="n">
+        <v>20.24</v>
+      </c>
+      <c r="U55" t="n">
+        <v>68.12</v>
+      </c>
+      <c r="V55" t="n">
+        <v>45.41</v>
+      </c>
+      <c r="W55" t="n">
+        <v>21.05</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>177.44</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Session_ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Session_Start</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Session_End</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Total_Seconds</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Total_Time</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BROWSER_20260101_00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2026-01-01 13:07:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-01-01 16:26:08</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>11948</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>03:19:00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BROWSER_20260101_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2026-01-01 09:25:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-01-01 11:59:28</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9268</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>02:34:00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>BROWSER_20260102_00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2026-01-02 09:20:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-01-02 15:20:46</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21646</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>06:00:00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BROWSER_20260105_00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2026-01-05 12:10:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-01-05 17:26:38</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>18998</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>05:16:00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BROWSER_20260106_00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2026-01-06 13:30:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-01-06 20:19:01</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>24541</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>06:49:00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BROWSER_20260107_00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2026-01-07 13:18:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2026-01-07 20:05:21</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>24441</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>06:47:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>BROWSER_20260108_00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2026-01-08 15:39:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-01-08 22:34:15</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>24915</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>06:55:00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>BROWSER_20260109_00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2026-01-09 14:14:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-01-09 20:23:03</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22143</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>06:09:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BROWSER_20260112_00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2026-01-12 09:23:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-01-12 15:44:39</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>22899</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>06:21:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BROWSER_20260113_00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2026-01-13 08:38:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-01-13 11:48:05</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>11405</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>03:10:00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BROWSER_20260113_01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2026-01-13 09:30:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-01-13 12:27:02</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>10622</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>02:57:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BROWSER_20260114_00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2026-01-14 11:27:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-01-14 14:40:18</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>11598</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>03:13:00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BROWSER_20260114_01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2026-01-14 09:51:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2026-01-14 12:42:30</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>10290</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>02:51:00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BROWSER_20260115_00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2026-01-15 11:57:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-01-15 18:48:38</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>24698</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>06:51:00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BROWSER_20260116_00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2026-01-16 09:58:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2026-01-16 12:51:30</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>10410</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>02:53:00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BROWSER_20260116_01</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2026-01-16 09:15:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2026-01-16 11:49:11</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>9251</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>02:34:00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BROWSER_20260119_00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2026-01-19 11:39:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2026-01-19 14:45:07</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>11167</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>03:06:00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BROWSER_20260119_01</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2026-01-19 11:21:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2026-01-19 14:20:01</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10741</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>02:59:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BROWSER_20260120_00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2026-01-20 14:03:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2026-01-20 16:58:33</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>10533</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>02:55:00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BROWSER_20260120_01</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2026-01-20 12:09:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2026-01-20 15:00:45</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>10305</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>02:51:00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BROWSER_20260121_00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2026-01-21 14:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:53:05</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>10385</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>02:53:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BROWSER_20260121_01</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2026-01-21 13:36:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2026-01-21 16:31:53</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10553</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>02:55:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BROWSER_20260122_00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2026-01-22 15:42:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2026-01-22 18:14:10</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>9130</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>02:32:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BROWSER_20260122_01</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2026-01-22 14:31:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2026-01-22 17:23:41</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>10361</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>02:52:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BROWSER_20260123_00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2026-01-23 14:12:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2026-01-23 21:09:22</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>25042</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>06:57:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BROWSER_20260126_00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2026-01-26 09:22:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2026-01-26 15:55:35</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>23615</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>06:33:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Browser_Session</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
